--- a/xlsx/country_comparison/synthetic_indicators_dem_median.xlsx
+++ b/xlsx/country_comparison/synthetic_indicators_dem_median.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tertiary diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural urbanicity</t>
   </si>
   <si>
     <t xml:space="preserve">Cities urbanicity</t>
@@ -449,13 +446,10 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.118266759376858</v>
@@ -482,27 +476,24 @@
         <v>0.235525898582998</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0629746805464087</v>
+        <v>0.102944321001517</v>
       </c>
       <c r="K2" t="n">
-        <v>0.102944321001517</v>
+        <v>0.233652143055361</v>
       </c>
       <c r="L2" t="n">
-        <v>0.233652143055361</v>
+        <v>0.06528390950431</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06528390950431</v>
+        <v>0.0770100810386536</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0770100810386536</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.128006338251467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.5</v>
@@ -541,15 +532,12 @@
         <v>0.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.1</v>
@@ -588,15 +576,12 @@
         <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.4</v>
@@ -623,27 +608,24 @@
         <v>0.5</v>
       </c>
       <c r="J5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.3</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.4</v>
-      </c>
       <c r="M5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.857142857142857</v>
@@ -670,21 +652,18 @@
         <v>0.875</v>
       </c>
       <c r="J6" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.833333333333333</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.857142857142857</v>
       </c>
       <c r="L6" t="n">
         <v>0.833333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.833333333333333</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="N6" t="n">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.833333333333333</v>
       </c>
     </row>
